--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>859.1672939373161</v>
+        <v>1461.348675220871</v>
       </c>
       <c r="R2">
-        <v>859.1672939373161</v>
+        <v>13152.13807698784</v>
       </c>
       <c r="S2">
-        <v>0.0004767005930378603</v>
+        <v>0.0007426323419130454</v>
       </c>
       <c r="T2">
-        <v>0.0004767005930378603</v>
+        <v>0.0007426323419130456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>3527.252222879718</v>
+        <v>6046.041975811478</v>
       </c>
       <c r="R3">
-        <v>3527.252222879718</v>
+        <v>54414.3777823033</v>
       </c>
       <c r="S3">
-        <v>0.001957061492337893</v>
+        <v>0.003072494872671527</v>
       </c>
       <c r="T3">
-        <v>0.001957061492337893</v>
+        <v>0.003072494872671527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>9377.385177960507</v>
+        <v>15955.28517214152</v>
       </c>
       <c r="R4">
-        <v>9377.385177960507</v>
+        <v>143597.5665492737</v>
       </c>
       <c r="S4">
-        <v>0.005202950702409252</v>
+        <v>0.008108202370996149</v>
       </c>
       <c r="T4">
-        <v>0.005202950702409252</v>
+        <v>0.008108202370996151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>9337.358656106437</v>
+        <v>18415.57348586516</v>
       </c>
       <c r="R5">
-        <v>9337.358656106437</v>
+        <v>165740.1613727865</v>
       </c>
       <c r="S5">
-        <v>0.005180742377162564</v>
+        <v>0.009358478710368569</v>
       </c>
       <c r="T5">
-        <v>0.005180742377162564</v>
+        <v>0.009358478710368571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H6">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I6">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J6">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>2238.838606895527</v>
+        <v>4281.000396765097</v>
       </c>
       <c r="R6">
-        <v>2238.838606895527</v>
+        <v>38529.00357088588</v>
       </c>
       <c r="S6">
-        <v>0.00124219776422381</v>
+        <v>0.002175531003851514</v>
       </c>
       <c r="T6">
-        <v>0.00124219776422381</v>
+        <v>0.002175531003851515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>58503.85052329915</v>
+        <v>58621.97105751638</v>
       </c>
       <c r="R7">
-        <v>58503.85052329915</v>
+        <v>527597.7395176474</v>
       </c>
       <c r="S7">
-        <v>0.03246029083771173</v>
+        <v>0.02979068061728819</v>
       </c>
       <c r="T7">
-        <v>0.03246029083771173</v>
+        <v>0.02979068061728819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>240183.5338257014</v>
+        <v>242536.8454006915</v>
       </c>
       <c r="R8">
-        <v>240183.5338257014</v>
+        <v>2182831.608606223</v>
       </c>
       <c r="S8">
-        <v>0.1332634910809283</v>
+        <v>0.1232530665365641</v>
       </c>
       <c r="T8">
-        <v>0.1332634910809283</v>
+        <v>0.1232530665365641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H9">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>638540.5317707877</v>
+        <v>640045.925681859</v>
       </c>
       <c r="R9">
-        <v>638540.5317707877</v>
+        <v>5760413.331136731</v>
       </c>
       <c r="S9">
-        <v>0.3542879859624328</v>
+        <v>0.3252603658392352</v>
       </c>
       <c r="T9">
-        <v>0.3542879859624328</v>
+        <v>0.3252603658392352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H10">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J10">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>635814.9791711459</v>
+        <v>738740.3391136531</v>
       </c>
       <c r="R10">
-        <v>635814.9791711459</v>
+        <v>6648663.052022877</v>
       </c>
       <c r="S10">
-        <v>0.3527757396865639</v>
+        <v>0.3754151746288006</v>
       </c>
       <c r="T10">
-        <v>0.3527757396865639</v>
+        <v>0.3754151746288006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H11">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J11">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>152450.7277312205</v>
+        <v>171732.2399587142</v>
       </c>
       <c r="R11">
-        <v>152450.7277312205</v>
+        <v>1545590.159628428</v>
       </c>
       <c r="S11">
-        <v>0.08458579933307883</v>
+        <v>0.0872713799964525</v>
       </c>
       <c r="T11">
-        <v>0.08458579933307883</v>
+        <v>0.08727137999645249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H12">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I12">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J12">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>4.53383648849438</v>
+        <v>4.917662040702332</v>
       </c>
       <c r="R12">
-        <v>4.53383648849438</v>
+        <v>44.25895836632099</v>
       </c>
       <c r="S12">
-        <v>2.515554954259753E-06</v>
+        <v>2.499071535731668E-06</v>
       </c>
       <c r="T12">
-        <v>2.515554954259753E-06</v>
+        <v>2.499071535731668E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H13">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I13">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J13">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>18.6133538195202</v>
+        <v>20.34585696425066</v>
       </c>
       <c r="R13">
-        <v>18.6133538195202</v>
+        <v>183.112712678256</v>
       </c>
       <c r="S13">
-        <v>1.032743781892164E-05</v>
+        <v>1.03394156793591E-05</v>
       </c>
       <c r="T13">
-        <v>1.032743781892164E-05</v>
+        <v>1.03394156793591E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H14">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I14">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J14">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>49.48457813340087</v>
+        <v>53.69197753421999</v>
       </c>
       <c r="R14">
-        <v>49.48457813340087</v>
+        <v>483.2277978079799</v>
       </c>
       <c r="S14">
-        <v>2.745603552285777E-05</v>
+        <v>2.728534243352558E-05</v>
       </c>
       <c r="T14">
-        <v>2.745603552285777E-05</v>
+        <v>2.728534243352558E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H15">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I15">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J15">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>49.27335768009678</v>
+        <v>61.97122440714966</v>
       </c>
       <c r="R15">
-        <v>49.27335768009678</v>
+        <v>557.7410196643469</v>
       </c>
       <c r="S15">
-        <v>2.733884191450897E-05</v>
+        <v>3.149271374659755E-05</v>
       </c>
       <c r="T15">
-        <v>2.733884191450897E-05</v>
+        <v>3.149271374659755E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H16">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I16">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J16">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>11.81437915458341</v>
+        <v>14.40622180344566</v>
       </c>
       <c r="R16">
-        <v>11.81437915458341</v>
+        <v>129.655996231011</v>
       </c>
       <c r="S16">
-        <v>6.555093040791362E-06</v>
+        <v>7.320994925728207E-06</v>
       </c>
       <c r="T16">
-        <v>6.555093040791362E-06</v>
+        <v>7.320994925728207E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H17">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I17">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J17">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>1741.161218887326</v>
+        <v>5.590351712847333</v>
       </c>
       <c r="R17">
-        <v>1741.161218887326</v>
+        <v>50.313165415626</v>
       </c>
       <c r="S17">
-        <v>0.0009660663196505115</v>
+        <v>2.840920893846189E-06</v>
       </c>
       <c r="T17">
-        <v>0.0009660663196505115</v>
+        <v>2.840920893846189E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H18">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I18">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J18">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>7148.217609131148</v>
+        <v>23.12897783297067</v>
       </c>
       <c r="R18">
-        <v>7148.217609131148</v>
+        <v>208.160800496736</v>
       </c>
       <c r="S18">
-        <v>0.003966118819328692</v>
+        <v>1.175374998821405E-05</v>
       </c>
       <c r="T18">
-        <v>0.003966118819328692</v>
+        <v>1.175374998821405E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H19">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I19">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J19">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>19003.91171969461</v>
+        <v>61.03653241932</v>
       </c>
       <c r="R19">
-        <v>19003.91171969461</v>
+        <v>549.3287917738801</v>
       </c>
       <c r="S19">
-        <v>0.01054413506047463</v>
+        <v>3.101771930368379E-05</v>
       </c>
       <c r="T19">
-        <v>0.01054413506047463</v>
+        <v>3.101771930368379E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H20">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I20">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J20">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>18922.79523857267</v>
+        <v>70.44830198666467</v>
       </c>
       <c r="R20">
-        <v>18922.79523857267</v>
+        <v>634.0347178799821</v>
       </c>
       <c r="S20">
-        <v>0.01049912837210458</v>
+        <v>3.580061923294722E-05</v>
       </c>
       <c r="T20">
-        <v>0.01049912837210458</v>
+        <v>3.580061923294722E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.250186</v>
+      </c>
+      <c r="H21">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I21">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J21">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N21">
+        <v>196.376177</v>
+      </c>
+      <c r="O21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q21">
+        <v>16.37685673964067</v>
+      </c>
+      <c r="R21">
+        <v>147.391710656766</v>
+      </c>
+      <c r="S21">
+        <v>8.322437813751471E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.322437813751471E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H22">
+        <v>295.950316</v>
+      </c>
+      <c r="I22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J22">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.34478233333333</v>
+      </c>
+      <c r="N22">
+        <v>67.034347</v>
+      </c>
+      <c r="O22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="P22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="Q22">
+        <v>2204.315130833739</v>
+      </c>
+      <c r="R22">
+        <v>19838.83617750365</v>
+      </c>
+      <c r="S22">
+        <v>0.001120195156489948</v>
+      </c>
+      <c r="T22">
+        <v>0.001120195156489948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H23">
+        <v>295.950316</v>
+      </c>
+      <c r="I23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J23">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N23">
+        <v>277.341392</v>
+      </c>
+      <c r="O23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="P23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="Q23">
+        <v>9119.919178031096</v>
+      </c>
+      <c r="R23">
+        <v>82079.27260227986</v>
+      </c>
+      <c r="S23">
+        <v>0.004634586565191423</v>
+      </c>
+      <c r="T23">
+        <v>0.004634586565191422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H24">
+        <v>295.950316</v>
+      </c>
+      <c r="I24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J24">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>243.96462</v>
+      </c>
+      <c r="N24">
+        <v>731.89386</v>
+      </c>
+      <c r="O24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="P24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="Q24">
+        <v>24067.13546060664</v>
+      </c>
+      <c r="R24">
+        <v>216604.2191454598</v>
+      </c>
+      <c r="S24">
+        <v>0.01223050560985895</v>
+      </c>
+      <c r="T24">
+        <v>0.01223050560985895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H21">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I21">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J21">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="N21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="O21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="P21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="Q21">
-        <v>4537.159392799962</v>
-      </c>
-      <c r="R21">
-        <v>4537.159392799962</v>
-      </c>
-      <c r="S21">
-        <v>0.002517398635303313</v>
-      </c>
-      <c r="T21">
-        <v>0.002517398635303313</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H25">
+        <v>295.950316</v>
+      </c>
+      <c r="I25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J25">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="N25">
+        <v>844.751129</v>
+      </c>
+      <c r="O25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="P25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="Q25">
+        <v>27778.26261876742</v>
+      </c>
+      <c r="R25">
+        <v>250004.3635689068</v>
+      </c>
+      <c r="S25">
+        <v>0.01411643680433279</v>
+      </c>
+      <c r="T25">
+        <v>0.01411643680433278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H26">
+        <v>295.950316</v>
+      </c>
+      <c r="I26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J26">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N26">
+        <v>196.376177</v>
+      </c>
+      <c r="O26">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P26">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q26">
+        <v>6457.510182002437</v>
+      </c>
+      <c r="R26">
+        <v>58117.59163802194</v>
+      </c>
+      <c r="S26">
+        <v>0.003281595960432235</v>
+      </c>
+      <c r="T26">
+        <v>0.003281595960432234</v>
       </c>
     </row>
   </sheetData>
